--- a/data/raw/lab_jena_results-co2_2019-02-25/Beem-Miller_archived_incubations_2.xlsx
+++ b/data/raw/lab_jena_results-co2_2019-02-25/Beem-Miller_archived_incubations_2.xlsx
@@ -3300,11 +3300,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2060713288"/>
-        <c:axId val="-2120083160"/>
+        <c:axId val="-1998927208"/>
+        <c:axId val="-1998921960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2060713288"/>
+        <c:axId val="-1998927208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3332,12 +3332,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120083160"/>
+        <c:crossAx val="-1998921960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2120083160"/>
+        <c:axId val="-1998921960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3366,7 +3366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060713288"/>
+        <c:crossAx val="-1998927208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3549,11 +3549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2063026120"/>
-        <c:axId val="-2063020616"/>
+        <c:axId val="-1999707512"/>
+        <c:axId val="-1999702008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2063026120"/>
+        <c:axId val="-1999707512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3581,12 +3581,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063020616"/>
+        <c:crossAx val="-1999702008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2063020616"/>
+        <c:axId val="-1999702008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3615,7 +3615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063026120"/>
+        <c:crossAx val="-1999707512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3794,11 +3794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2062959976"/>
-        <c:axId val="-2062954488"/>
+        <c:axId val="-2046905544"/>
+        <c:axId val="-2047205848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2062959976"/>
+        <c:axId val="-2046905544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3826,12 +3826,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2062954488"/>
+        <c:crossAx val="-2047205848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2062954488"/>
+        <c:axId val="-2047205848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3860,7 +3860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2062959976"/>
+        <c:crossAx val="-2046905544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4043,11 +4043,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2062922008"/>
-        <c:axId val="-2062916504"/>
+        <c:axId val="-2047180616"/>
+        <c:axId val="-2047175656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2062922008"/>
+        <c:axId val="-2047180616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4075,12 +4075,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2062916504"/>
+        <c:crossAx val="-2047175656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2062916504"/>
+        <c:axId val="-2047175656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4109,7 +4109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2062922008"/>
+        <c:crossAx val="-2047180616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4289,11 +4289,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2062855368"/>
-        <c:axId val="-2062849880"/>
+        <c:axId val="-2047427096"/>
+        <c:axId val="-2047421608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2062855368"/>
+        <c:axId val="-2047427096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4322,12 +4322,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2062849880"/>
+        <c:crossAx val="-2047421608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2062849880"/>
+        <c:axId val="-2047421608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4357,7 +4357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2062855368"/>
+        <c:crossAx val="-2047427096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4541,11 +4541,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2062817512"/>
-        <c:axId val="-2062812008"/>
+        <c:axId val="-2047573080"/>
+        <c:axId val="-2047567576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2062817512"/>
+        <c:axId val="-2047573080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4574,12 +4574,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2062812008"/>
+        <c:crossAx val="-2047567576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2062812008"/>
+        <c:axId val="-2047567576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4609,7 +4609,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2062817512"/>
+        <c:crossAx val="-2047573080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4664,6 +4664,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4788,11 +4789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2062734840"/>
-        <c:axId val="-2062729352"/>
+        <c:axId val="-2000412984"/>
+        <c:axId val="-2000424264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2062734840"/>
+        <c:axId val="-2000412984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4814,18 +4815,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2062729352"/>
+        <c:crossAx val="-2000424264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2062729352"/>
+        <c:axId val="-2000424264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4848,13 +4850,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2062734840"/>
+        <c:crossAx val="-2000412984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4913,6 +4916,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5037,11 +5041,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2063248952"/>
-        <c:axId val="-2063253656"/>
+        <c:axId val="-2000451368"/>
+        <c:axId val="-2000467880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2063248952"/>
+        <c:axId val="-2000451368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5063,18 +5067,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063253656"/>
+        <c:crossAx val="-2000467880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2063253656"/>
+        <c:axId val="-2000467880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5097,13 +5102,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063248952"/>
+        <c:crossAx val="-2000451368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5282,11 +5288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2080646792"/>
-        <c:axId val="-2080641304"/>
+        <c:axId val="-2000526312"/>
+        <c:axId val="-2000531576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2080646792"/>
+        <c:axId val="-2000526312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5314,12 +5320,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080641304"/>
+        <c:crossAx val="-2000531576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2080641304"/>
+        <c:axId val="-2000531576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5348,7 +5354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080646792"/>
+        <c:crossAx val="-2000526312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5531,11 +5537,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2085767480"/>
-        <c:axId val="-2085761976"/>
+        <c:axId val="-2000564168"/>
+        <c:axId val="-2000569448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2085767480"/>
+        <c:axId val="-2000564168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5563,12 +5569,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085761976"/>
+        <c:crossAx val="-2000569448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2085761976"/>
+        <c:axId val="-2000569448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5597,7 +5603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085767480"/>
+        <c:crossAx val="-2000564168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5776,11 +5782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2098569720"/>
-        <c:axId val="-2099119464"/>
+        <c:axId val="-2000631064"/>
+        <c:axId val="-2000636328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2098569720"/>
+        <c:axId val="-2000631064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5808,12 +5814,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099119464"/>
+        <c:crossAx val="-2000636328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2099119464"/>
+        <c:axId val="-2000636328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5842,7 +5848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098569720"/>
+        <c:crossAx val="-2000631064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6025,11 +6031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2120138568"/>
-        <c:axId val="-2120133064"/>
+        <c:axId val="-1998889352"/>
+        <c:axId val="-1998884088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2120138568"/>
+        <c:axId val="-1998889352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6057,12 +6063,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120133064"/>
+        <c:crossAx val="-1998884088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2120133064"/>
+        <c:axId val="-1998884088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6091,7 +6097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120138568"/>
+        <c:crossAx val="-1998889352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6274,11 +6280,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2099184808"/>
-        <c:axId val="-2099196552"/>
+        <c:axId val="-2000669368"/>
+        <c:axId val="-2000674648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2099184808"/>
+        <c:axId val="-2000669368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6306,12 +6312,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099196552"/>
+        <c:crossAx val="-2000674648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2099196552"/>
+        <c:axId val="-2000674648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6340,7 +6346,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099184808"/>
+        <c:crossAx val="-2000669368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6519,11 +6525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2085990904"/>
-        <c:axId val="-2085985304"/>
+        <c:axId val="-1998830248"/>
+        <c:axId val="-1998825000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2085990904"/>
+        <c:axId val="-1998830248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6551,12 +6557,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085985304"/>
+        <c:crossAx val="-1998825000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2085985304"/>
+        <c:axId val="-1998825000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6585,7 +6591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085990904"/>
+        <c:crossAx val="-1998830248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6768,11 +6774,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2119458232"/>
-        <c:axId val="-2081019992"/>
+        <c:axId val="-1998792104"/>
+        <c:axId val="-1998786840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2119458232"/>
+        <c:axId val="-1998792104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6800,12 +6806,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081019992"/>
+        <c:crossAx val="-1998786840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081019992"/>
+        <c:axId val="-1998786840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6834,7 +6840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119458232"/>
+        <c:crossAx val="-1998792104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7013,11 +7019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2119466648"/>
-        <c:axId val="-2081013592"/>
+        <c:axId val="-1998733192"/>
+        <c:axId val="-1998727944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2119466648"/>
+        <c:axId val="-1998733192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7045,12 +7051,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081013592"/>
+        <c:crossAx val="-1998727944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081013592"/>
+        <c:axId val="-1998727944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7079,7 +7085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119466648"/>
+        <c:crossAx val="-1998733192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7262,11 +7268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2059502440"/>
-        <c:axId val="-2060303176"/>
+        <c:axId val="-1998695304"/>
+        <c:axId val="-2001798152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2059502440"/>
+        <c:axId val="-1998695304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7294,12 +7300,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060303176"/>
+        <c:crossAx val="-2001798152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2060303176"/>
+        <c:axId val="-2001798152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7328,7 +7334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2059502440"/>
+        <c:crossAx val="-1998695304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7507,11 +7513,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2063173688"/>
-        <c:axId val="-2063168200"/>
+        <c:axId val="-2002640760"/>
+        <c:axId val="-2002644968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2063173688"/>
+        <c:axId val="-2002640760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7539,12 +7545,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063168200"/>
+        <c:crossAx val="-2002644968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2063168200"/>
+        <c:axId val="-2002644968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7573,7 +7579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063173688"/>
+        <c:crossAx val="-2002640760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7756,11 +7762,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2063135800"/>
-        <c:axId val="-2063130296"/>
+        <c:axId val="-2002589256"/>
+        <c:axId val="-2002583800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2063135800"/>
+        <c:axId val="-2002589256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7788,12 +7794,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063130296"/>
+        <c:crossAx val="-2002583800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2063130296"/>
+        <c:axId val="-2002583800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7822,7 +7828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063135800"/>
+        <c:crossAx val="-2002589256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8001,11 +8007,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2063063976"/>
-        <c:axId val="-2063058488"/>
+        <c:axId val="-1999745368"/>
+        <c:axId val="-1999739880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2063063976"/>
+        <c:axId val="-1999745368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8033,12 +8039,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063058488"/>
+        <c:crossAx val="-1999739880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2063058488"/>
+        <c:axId val="-1999739880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8067,7 +8073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063063976"/>
+        <c:crossAx val="-1999745368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -30612,8 +30618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D126" workbookViewId="0">
-      <selection activeCell="P150" sqref="P150"/>
+    <sheetView tabSelected="1" topLeftCell="D142" workbookViewId="0">
+      <selection activeCell="L150" sqref="L150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -40192,8 +40198,8 @@
         <f t="shared" si="49"/>
         <v>12</v>
       </c>
-      <c r="L150">
-        <f t="shared" si="50"/>
+      <c r="L150" s="66">
+        <f>DAY(I150)+I150-ROUNDDOWN(I150,0)</f>
         <v>14</v>
       </c>
       <c r="M150" t="s">
